--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H2">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I2">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J2">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>936.776344483368</v>
+        <v>614.2189314927332</v>
       </c>
       <c r="R2">
-        <v>8430.987100350312</v>
+        <v>5527.9703834346</v>
       </c>
       <c r="S2">
-        <v>0.581251847815042</v>
+        <v>0.5500674622396236</v>
       </c>
       <c r="T2">
-        <v>0.5812518478150419</v>
+        <v>0.5500674622396236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H3">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I3">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J3">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>89.98890236605065</v>
+        <v>85.56528779144</v>
       </c>
       <c r="R3">
-        <v>809.9001212944559</v>
+        <v>770.0875901229601</v>
       </c>
       <c r="S3">
-        <v>0.0558363969064155</v>
+        <v>0.07662850866034773</v>
       </c>
       <c r="T3">
-        <v>0.05583639690641549</v>
+        <v>0.07662850866034776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.75560066666667</v>
+        <v>15.93194</v>
       </c>
       <c r="H4">
-        <v>50.266802</v>
+        <v>47.79582</v>
       </c>
       <c r="I4">
-        <v>0.9064438825950116</v>
+        <v>0.9552847657129105</v>
       </c>
       <c r="J4">
-        <v>0.9064438825950115</v>
+        <v>0.9552847657129107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>434.1078497413491</v>
+        <v>366.9103742816333</v>
       </c>
       <c r="R4">
-        <v>3906.970647672142</v>
+        <v>3302.1933685347</v>
       </c>
       <c r="S4">
-        <v>0.269355637873554</v>
+        <v>0.3285887948129392</v>
       </c>
       <c r="T4">
-        <v>0.269355637873554</v>
+        <v>0.3285887948129392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J5">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>4.298394138516</v>
+        <v>2.964045440163333</v>
       </c>
       <c r="R5">
-        <v>38.685547246644</v>
+        <v>26.67640896147</v>
       </c>
       <c r="S5">
-        <v>0.002667071548468344</v>
+        <v>0.00265446874011382</v>
       </c>
       <c r="T5">
-        <v>0.002667071548468344</v>
+        <v>0.002654468740113821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J6">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
-        <v>0.4129136829079999</v>
+        <v>0.412913682908</v>
       </c>
       <c r="R6">
-        <v>3.716223146172</v>
+        <v>3.716223146172001</v>
       </c>
       <c r="S6">
-        <v>0.0002562050617436898</v>
+        <v>0.0003697873348338943</v>
       </c>
       <c r="T6">
-        <v>0.0002562050617436898</v>
+        <v>0.0003697873348338944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019111</v>
       </c>
       <c r="J7">
-        <v>0.004159213770485276</v>
+        <v>0.004609931913019112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>1.991901960164333</v>
+        <v>1.770604854518333</v>
       </c>
       <c r="R7">
-        <v>17.927117641479</v>
+        <v>15.935443690665</v>
       </c>
       <c r="S7">
-        <v>0.001235937160273243</v>
+        <v>0.001585675838071396</v>
       </c>
       <c r="T7">
-        <v>0.001235937160273243</v>
+        <v>0.001585675838071397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H8">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I8">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J8">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>92.388405066084</v>
+        <v>25.78648467508111</v>
       </c>
       <c r="R8">
-        <v>831.4956455947561</v>
+        <v>232.07836207573</v>
       </c>
       <c r="S8">
-        <v>0.05732524254864908</v>
+        <v>0.02309324160821739</v>
       </c>
       <c r="T8">
-        <v>0.05732524254864907</v>
+        <v>0.02309324160821739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H9">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I9">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J9">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>8.875043880225332</v>
+        <v>3.592250041838668</v>
       </c>
       <c r="R9">
-        <v>79.87539492202799</v>
+        <v>32.33025037654801</v>
       </c>
       <c r="S9">
-        <v>0.005506795389528694</v>
+        <v>0.003217061153491579</v>
       </c>
       <c r="T9">
-        <v>0.005506795389528693</v>
+        <v>0.003217061153491579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.652500333333333</v>
+        <v>0.6688636666666667</v>
       </c>
       <c r="H10">
-        <v>4.957501</v>
+        <v>2.006591</v>
       </c>
       <c r="I10">
-        <v>0.0893969036345032</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="J10">
-        <v>0.08939690363450319</v>
+        <v>0.04010530237407027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>42.81334824524122</v>
+        <v>15.40383771719278</v>
       </c>
       <c r="R10">
-        <v>385.320134207171</v>
+        <v>138.634539454735</v>
       </c>
       <c r="S10">
-        <v>0.02656486569632542</v>
+        <v>0.0137949996123613</v>
       </c>
       <c r="T10">
-        <v>0.02656486569632542</v>
+        <v>0.0137949996123613</v>
       </c>
     </row>
   </sheetData>
